--- a/lista-2/udp/client/udp_balance.xlsx
+++ b/lista-2/udp/client/udp_balance.xlsx
@@ -397,5002 +397,5002 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>0.809851</v>
+        <v>0.8234400000000001</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1.2092159999999998</v>
+        <v>1.04995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>1.0196999999999998</v>
+        <v>0.909877</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>1.104161</v>
+        <v>0.46362200000000003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>0.8804350000000001</v>
+        <v>1.0409329999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>1.21598</v>
+        <v>1.000883</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>0.873924</v>
+        <v>1.107596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>0.968343</v>
+        <v>1.126336</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>1.4076950000000001</v>
+        <v>0.575268</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>0.8069000000000001</v>
+        <v>0.916998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>0.869315</v>
+        <v>0.9281750000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>2.845841</v>
+        <v>0.9234990000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>1.194693</v>
+        <v>1.0818379999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>0.8508469999999999</v>
+        <v>0.854564</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>0.46358499999999997</v>
+        <v>0.84846</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>0.915871</v>
+        <v>1.019776</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>1.2233990000000001</v>
+        <v>2.185588</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>1.053976</v>
+        <v>1.167884</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>0.738937</v>
+        <v>0.777948</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>0.899382</v>
+        <v>1.624752</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>1.206541</v>
+        <v>0.974932</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>0.746093</v>
+        <v>0.527108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>1.0914290000000002</v>
+        <v>0.70051</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>0.710813</v>
+        <v>0.596893</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>0.906678</v>
+        <v>3.079339</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>0.868822</v>
+        <v>1.0775240000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>0.8611489999999999</v>
+        <v>0.587169</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>1.189266</v>
+        <v>0.5360010000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>0.942144</v>
+        <v>0.6275029999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>1.0630030000000001</v>
+        <v>1.780979</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>3.4374219999999998</v>
+        <v>0.927292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>0.9245990000000001</v>
+        <v>0.4963739999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>0.6769970000000001</v>
+        <v>0.789656</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>0.609428</v>
+        <v>1.292938</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>1.008435</v>
+        <v>0.931908</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>1.178816</v>
+        <v>1.1899490000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>1.012607</v>
+        <v>0.5366289999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>0.954303</v>
+        <v>1.291317</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>0.963488</v>
+        <v>1.126633</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>0.5822849999999999</v>
+        <v>0.520823</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>0.897494</v>
+        <v>0.9554229999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>0.9013680000000001</v>
+        <v>0.9943379999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>1.01292</v>
+        <v>1.559958</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>0.925782</v>
+        <v>1.1571699999999998</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>1.20366</v>
+        <v>0.759255</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>0.525012</v>
+        <v>0.917725</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>0.9412999999999999</v>
+        <v>0.594664</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>1.926491</v>
+        <v>0.909676</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>1.287196</v>
+        <v>0.5512429999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>0.820698</v>
+        <v>0.88744</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>2.16463</v>
+        <v>2.40485</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>1.035944</v>
+        <v>0.866733</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>1.138475</v>
+        <v>0.913992</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>1.120916</v>
+        <v>0.628702</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>0.727525</v>
+        <v>1.6704999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>0.945455</v>
+        <v>0.717126</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>3.165205</v>
+        <v>0.82953</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>3.727773</v>
+        <v>1.109518</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>0.894485</v>
+        <v>1.833353</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>1.104313</v>
+        <v>0.8516710000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>0.73643</v>
+        <v>0.9432229999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>1.059431</v>
+        <v>0.61063</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>1.344388</v>
+        <v>2.5025999999999997</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>0.7490720000000001</v>
+        <v>0.9201520000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>0.9858060000000001</v>
+        <v>0.622099</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>0.8980750000000001</v>
+        <v>1.039515</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>2.840363</v>
+        <v>0.735688</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>0.9304790000000001</v>
+        <v>2.73507</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>0.941592</v>
+        <v>1.220273</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>7.5991089999999994</v>
+        <v>0.7016220000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>0.538976</v>
+        <v>0.9066799999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>1.085909</v>
+        <v>0.7845350000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>0.67221</v>
+        <v>0.841831</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>0.873093</v>
+        <v>1.0099</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>0.823759</v>
+        <v>0.7588550000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>0.950214</v>
+        <v>0.9987699999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>0.548525</v>
+        <v>0.809185</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>0.985004</v>
+        <v>0.918443</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>0.93754</v>
+        <v>0.6763929999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>0.7890459999999999</v>
+        <v>0.898634</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>1.209036</v>
+        <v>2.0070259999999998</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>1.117282</v>
+        <v>1.224023</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>0.848124</v>
+        <v>0.8949389999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>0.801451</v>
+        <v>0.933841</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>0.6122000000000001</v>
+        <v>1.4622229999999998</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>0.9630329999999999</v>
+        <v>1.3270549999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>0.929829</v>
+        <v>0.871485</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>1.033885</v>
+        <v>0.7830969999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>1.006805</v>
+        <v>1.137737</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>0.946172</v>
+        <v>0.6019279999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>0.904514</v>
+        <v>1.0378150000000002</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>0.799495</v>
+        <v>0.936523</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>0.955584</v>
+        <v>0.800098</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>0.8225290000000001</v>
+        <v>1.816374</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>1.3114890000000001</v>
+        <v>0.691627</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>1.063748</v>
+        <v>1.196958</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>0.982965</v>
+        <v>0.568333</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>0.899906</v>
+        <v>1.5176779999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>0.578004</v>
+        <v>0.773505</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>1.3009950000000001</v>
+        <v>1.005875</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>0.9679610000000001</v>
+        <v>0.906567</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>0.9987699999999999</v>
+        <v>1.069148</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>0.945394</v>
+        <v>1.684554</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>5.0778799999999995</v>
+        <v>0.947984</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>1.0192249999999998</v>
+        <v>0.465284</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>1.013419</v>
+        <v>1.369893</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>1.0610089999999999</v>
+        <v>0.864695</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>0.920947</v>
+        <v>0.8295359999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>1.703577</v>
+        <v>0.6898120000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>1.03895</v>
+        <v>2.069857</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>1.0263799999999998</v>
+        <v>1.011534</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>0.793741</v>
+        <v>0.770857</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>0.977344</v>
+        <v>0.802965</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>1.026117</v>
+        <v>0.885533</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>1.7593450000000002</v>
+        <v>2.297406</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>1.026489</v>
+        <v>1.1215680000000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>0.8731439999999999</v>
+        <v>0.8038430000000001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>0.849563</v>
+        <v>0.794276</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>0.925639</v>
+        <v>0.6314460000000001</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>1.108676</v>
+        <v>0.9728490000000001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>1.2876459999999998</v>
+        <v>0.9450860000000001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>0.977576</v>
+        <v>0.567648</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>1.039374</v>
+        <v>1.559455</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>0.911969</v>
+        <v>0.935349</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>0.598379</v>
+        <v>0.849812</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>0.49111</v>
+        <v>0.980654</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>1.5405900000000001</v>
+        <v>0.641699</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>0.788968</v>
+        <v>1.9675539999999998</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>1.0301360000000002</v>
+        <v>1.425892</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>0.408559</v>
+        <v>0.559693</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>0.9083220000000001</v>
+        <v>0.951205</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>1.069237</v>
+        <v>0.8139850000000001</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>0.8885689999999999</v>
+        <v>2.265108</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>1.075217</v>
+        <v>0.843005</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>1.0850499999999998</v>
+        <v>0.76096</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>3.5344539999999998</v>
+        <v>0.970476</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>0.8036369999999999</v>
+        <v>1.008104</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>1.098709</v>
+        <v>0.8844770000000001</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>1.241634</v>
+        <v>0.975576</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>0.8270569999999999</v>
+        <v>0.9036740000000001</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>1.09348</v>
+        <v>0.6224470000000001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>0.9089200000000001</v>
+        <v>2.246333</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>1.1197819999999998</v>
+        <v>0.868207</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>0.498077</v>
+        <v>0.799306</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>1.022984</v>
+        <v>0.46368800000000004</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>0.7686080000000001</v>
+        <v>1.222158</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>1.07208</v>
+        <v>0.854967</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>0.946311</v>
+        <v>0.880616</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>1.314128</v>
+        <v>0.916674</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>0.964494</v>
+        <v>0.9676440000000001</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>0.820236</v>
+        <v>1.091454</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>0.892859</v>
+        <v>0.98303</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>0.690043</v>
+        <v>0.902143</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>0.711357</v>
+        <v>0.748638</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>0.609814</v>
+        <v>1.6911610000000001</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>0.703581</v>
+        <v>1.498656</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>0.8697750000000001</v>
+        <v>0.519251</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>1.1560439999999998</v>
+        <v>0.946311</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>0.707557</v>
+        <v>1.029161</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>0.839778</v>
+        <v>1.971117</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>0.873569</v>
+        <v>0.817462</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>1.162853</v>
+        <v>0.774973</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>4.783242</v>
+        <v>0.890185</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>2.72627</v>
+        <v>1.0881020000000001</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>0.908786</v>
+        <v>0.690921</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>13.328954000000001</v>
+        <v>0.802152</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>0.5724149999999999</v>
+        <v>0.6782020000000001</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>0.941258</v>
+        <v>1.246801</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>0.752593</v>
+        <v>0.924076</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>0.918057</v>
+        <v>0.7738200000000001</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>0.869378</v>
+        <v>0.86402</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>0.947963</v>
+        <v>1.573641</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>5.463896</v>
+        <v>1.635123</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>1.06579</v>
+        <v>1.00712</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>1.103729</v>
+        <v>0.794894</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>0.8865029999999999</v>
+        <v>0.907092</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>0.929961</v>
+        <v>0.780128</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>1.085565</v>
+        <v>2.285779</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>0.971346</v>
+        <v>1.010361</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>1.012787</v>
+        <v>0.606621</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>1.407917</v>
+        <v>0.800137</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>0.9816790000000001</v>
+        <v>2.080592</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>0.5182490000000001</v>
+        <v>0.509524</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>1.213848</v>
+        <v>0.965076</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>0.514324</v>
+        <v>0.6219659999999999</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>0.7498239999999999</v>
+        <v>1.159584</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>1.149105</v>
+        <v>0.515828</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>0.922199</v>
+        <v>0.836074</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>1.032755</v>
+        <v>2.2954160000000003</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>0.609204</v>
+        <v>0.5554279999999999</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>0.500927</v>
+        <v>0.9890730000000001</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>5.955621000000001</v>
+        <v>0.839478</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>0.532207</v>
+        <v>2.438758</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>0.63103</v>
+        <v>0.723756</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1">
-        <v>0.544276</v>
+        <v>0.77651</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1">
-        <v>1.030045</v>
+        <v>0.968846</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1">
-        <v>0.9953259999999999</v>
+        <v>1.0178800000000001</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1">
-        <v>0.696357</v>
+        <v>0.715963</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1">
-        <v>1.117646</v>
+        <v>1.079851</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1">
-        <v>0.516811</v>
+        <v>1.000982</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1">
-        <v>1.001411</v>
+        <v>2.46419</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1">
-        <v>6.194459</v>
+        <v>0.9780870000000002</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1">
-        <v>0.5639240000000001</v>
+        <v>0.669686</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1">
-        <v>0.9125869999999999</v>
+        <v>0.780734</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1">
-        <v>2.76577</v>
+        <v>1.2403819999999999</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1">
-        <v>0.994241</v>
+        <v>1.027099</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1">
-        <v>0.7698740000000001</v>
+        <v>0.554801</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1">
-        <v>1.228618</v>
+        <v>0.7416659999999999</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1">
-        <v>0.532582</v>
+        <v>1.07515</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1">
-        <v>1.0275429999999999</v>
+        <v>0.951831</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1">
-        <v>1.053837</v>
+        <v>0.9798910000000001</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1">
-        <v>1.2177799999999999</v>
+        <v>0.441723</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1">
-        <v>0.6084200000000001</v>
+        <v>1.299024</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1">
-        <v>1.092535</v>
+        <v>1.430457</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1">
-        <v>0.854488</v>
+        <v>0.4993830000000001</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1">
-        <v>0.824126</v>
+        <v>0.7964260000000001</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1">
-        <v>0.8112189999999999</v>
+        <v>0.847198</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1">
-        <v>0.947973</v>
+        <v>3.059278</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1">
-        <v>0.6912010000000001</v>
+        <v>1.0659669999999999</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1">
-        <v>0.851133</v>
+        <v>0.580434</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1">
-        <v>1.361335</v>
+        <v>0.871678</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1">
-        <v>1.0389819999999999</v>
+        <v>0.973483</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1">
-        <v>0.662792</v>
+        <v>2.3986099999999997</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1">
-        <v>3.6240449999999997</v>
+        <v>0.773556</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1">
-        <v>0.559845</v>
+        <v>0.771236</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1">
-        <v>1.031976</v>
+        <v>1.13489</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1">
-        <v>0.505733</v>
+        <v>1.648383</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1">
-        <v>1.044945</v>
+        <v>0.742521</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1">
-        <v>0.65798</v>
+        <v>0.808948</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1">
-        <v>1.008788</v>
+        <v>0.600369</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1">
-        <v>1.207234</v>
+        <v>0.988482</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1">
-        <v>0.969505</v>
+        <v>0.890308</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1">
-        <v>0.70201</v>
+        <v>0.8029540000000001</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1">
-        <v>0.510228</v>
+        <v>0.977134</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1">
-        <v>1.3081880000000001</v>
+        <v>0.467677</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1">
-        <v>0.7001820000000001</v>
+        <v>0.9005839999999999</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1">
-        <v>1.571804</v>
+        <v>1.001046</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1">
-        <v>0.659337</v>
+        <v>0.5144569999999999</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1">
-        <v>2.489117</v>
+        <v>0.776399</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1">
-        <v>2.178754</v>
+        <v>0.461536</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1">
-        <v>0.838492</v>
+        <v>0.847558</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1">
-        <v>0.56884</v>
+        <v>0.707305</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1">
-        <v>0.892062</v>
+        <v>0.8175</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1">
-        <v>0.747671</v>
+        <v>0.49820699999999996</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1">
-        <v>0.7724840000000001</v>
+        <v>1.4688679999999998</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1">
-        <v>0.77023</v>
+        <v>0.794592</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1">
-        <v>0.762098</v>
+        <v>0.685858</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1">
-        <v>0.7921630000000001</v>
+        <v>0.8204119999999999</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1">
-        <v>1.2119389999999999</v>
+        <v>2.228028</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1">
-        <v>0.474189</v>
+        <v>0.7919999999999999</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1">
-        <v>0.8510059999999999</v>
+        <v>0.825786</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1">
-        <v>0.8139850000000001</v>
+        <v>0.7776280000000001</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1">
-        <v>0.598224</v>
+        <v>0.81821</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1">
-        <v>0.566874</v>
+        <v>0.534401</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1">
-        <v>0.754591</v>
+        <v>0.878331</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1">
-        <v>0.802612</v>
+        <v>0.8306939999999999</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1">
-        <v>1.0501550000000002</v>
+        <v>0.735957</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1">
-        <v>0.940747</v>
+        <v>1.70433</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1">
-        <v>1.097035</v>
+        <v>0.962883</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1">
-        <v>0.480997</v>
+        <v>0.780546</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1">
-        <v>0.838238</v>
+        <v>0.8046989999999999</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1">
-        <v>0.9953</v>
+        <v>1.1212170000000001</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1">
-        <v>0.660023</v>
+        <v>0.960934</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1">
-        <v>0.84244</v>
+        <v>0.899649</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1">
-        <v>0.538354</v>
+        <v>0.790094</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1">
-        <v>0.878353</v>
+        <v>0.78744</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1">
-        <v>0.5685</v>
+        <v>2.39484</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1">
-        <v>0.878046</v>
+        <v>0.90909</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1">
-        <v>0.673517</v>
+        <v>0.817198</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1">
-        <v>1.197607</v>
+        <v>0.573933</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1">
-        <v>0.59875</v>
+        <v>2.074644</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1">
-        <v>4.040557</v>
+        <v>0.7362580000000001</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1">
-        <v>0.8566900000000001</v>
+        <v>0.746824</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1">
-        <v>1.022326</v>
+        <v>1.00169</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1">
-        <v>0.525651</v>
+        <v>0.747931</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1">
-        <v>1.524363</v>
+        <v>0.536142</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1">
-        <v>1.128196</v>
+        <v>0.77845</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1">
-        <v>0.982385</v>
+        <v>1.169614</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1">
-        <v>4.562894</v>
+        <v>0.8939549999999999</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1">
-        <v>0.742893</v>
+        <v>0.693224</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1">
-        <v>0.533726</v>
+        <v>0.8945869999999999</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1">
-        <v>1.1345649999999998</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1">
-        <v>0.51424</v>
+        <v>0.879802</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1">
-        <v>0.483501</v>
+        <v>0.522857</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1">
-        <v>0.658769</v>
+        <v>0.6790360000000001</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1">
-        <v>0.851044</v>
+        <v>1.098042</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1">
-        <v>0.852145</v>
+        <v>0.738206</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1">
-        <v>0.48280300000000004</v>
+        <v>0.857136</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1">
-        <v>1.30487</v>
+        <v>0.824499</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1">
-        <v>0.997959</v>
+        <v>0.7635339999999999</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1">
-        <v>0.487174</v>
+        <v>0.848473</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1">
-        <v>0.9201189999999999</v>
+        <v>1.119403</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1">
-        <v>0.434099</v>
+        <v>0.957528</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1">
-        <v>1.010431</v>
+        <v>0.867882</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1">
-        <v>0.973279</v>
+        <v>0.6963060000000001</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1">
-        <v>0.823361</v>
+        <v>0.572719</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1">
-        <v>0.905504</v>
+        <v>2.087024</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1">
-        <v>3.398689</v>
+        <v>0.8482299999999999</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1">
-        <v>0.803048</v>
+        <v>0.834144</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1">
-        <v>0.39631900000000003</v>
+        <v>1.229594</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1">
-        <v>0.8450960000000001</v>
+        <v>0.650024</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1">
-        <v>1.028114</v>
+        <v>0.967566</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1">
-        <v>0.7945829999999999</v>
+        <v>0.92383</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1">
-        <v>0.589506</v>
+        <v>0.447882</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1">
-        <v>0.994057</v>
+        <v>1.1599920000000001</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1">
-        <v>0.749275</v>
+        <v>0.584978</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1">
-        <v>0.966693</v>
+        <v>0.804817</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1">
-        <v>0.5089520000000001</v>
+        <v>1.0896949999999999</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1">
-        <v>0.669989</v>
+        <v>1.93741</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1">
-        <v>0.9114359999999999</v>
+        <v>0.873172</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1">
-        <v>0.796959</v>
+        <v>0.699026</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1">
-        <v>0.891965</v>
+        <v>1.2071759999999998</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1">
-        <v>0.448109</v>
+        <v>0.7472219999999999</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1">
-        <v>0.923126</v>
+        <v>1.327393</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1">
-        <v>0.8693000000000001</v>
+        <v>0.8652</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1">
-        <v>0.852794</v>
+        <v>0.420266</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1">
-        <v>0.7344059999999999</v>
+        <v>0.730124</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1">
-        <v>1.078327</v>
+        <v>0.8240959999999999</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1">
-        <v>0.810976</v>
+        <v>0.878033</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1">
-        <v>0.868836</v>
+        <v>0.84108</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1">
-        <v>2.025496</v>
+        <v>0.80039</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1">
-        <v>0.753905</v>
+        <v>2.0084750000000002</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1">
-        <v>0.925432</v>
+        <v>0.7614409999999999</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1">
-        <v>0.6363369999999999</v>
+        <v>0.7831640000000001</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1">
-        <v>0.8987780000000001</v>
+        <v>1.045473</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1">
-        <v>0.883792</v>
+        <v>0.68603</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1">
-        <v>2.336901</v>
+        <v>0.9439179999999999</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1">
-        <v>0.9641679999999999</v>
+        <v>0.76983</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1">
-        <v>1.012593</v>
+        <v>1.1788779999999999</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1">
-        <v>0.957651</v>
+        <v>1.031463</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1">
-        <v>0.855244</v>
+        <v>0.9051680000000001</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1">
-        <v>0.771119</v>
+        <v>0.836086</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1">
-        <v>0.931886</v>
+        <v>0.7292460000000001</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1">
-        <v>0.852803</v>
+        <v>1.643173</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1">
-        <v>0.94746</v>
+        <v>1.061806</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1">
-        <v>0.426828</v>
+        <v>0.869178</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1">
-        <v>0.687921</v>
+        <v>0.840523</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1">
-        <v>0.9045880000000001</v>
+        <v>0.662299</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1">
-        <v>1.525116</v>
+        <v>2.256306</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1">
-        <v>0.98405</v>
+        <v>0.9251090000000001</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1">
-        <v>2.275442</v>
+        <v>0.67674</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1">
-        <v>1.147259</v>
+        <v>0.9595899999999999</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1">
-        <v>0.886289</v>
+        <v>0.7597619999999999</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1">
-        <v>0.909188</v>
+        <v>0.852422</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1">
-        <v>1.05207</v>
+        <v>0.8033549999999999</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1">
-        <v>0.86753</v>
+        <v>1.153526</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1">
-        <v>0.978192</v>
+        <v>1.219348</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1">
-        <v>1.19193</v>
+        <v>0.7955329999999999</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1">
-        <v>0.846966</v>
+        <v>0.847198</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1">
-        <v>2.8370309999999996</v>
+        <v>0.46339800000000003</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1">
-        <v>1.0084600000000001</v>
+        <v>2.177022</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1">
-        <v>0.974543</v>
+        <v>0.876533</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1">
-        <v>0.819203</v>
+        <v>0.94177</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1">
-        <v>0.9709760000000001</v>
+        <v>0.816119</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1">
-        <v>1.059787</v>
+        <v>0.5327310000000001</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1">
-        <v>1.986594</v>
+        <v>0.876471</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1">
-        <v>0.631656</v>
+        <v>0.6817219999999999</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1">
-        <v>0.8538789999999999</v>
+        <v>0.87078</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1">
-        <v>0.980854</v>
+        <v>1.5406739999999999</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1">
-        <v>1.37011</v>
+        <v>0.5246759999999999</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1">
-        <v>0.893111</v>
+        <v>0.6832020000000001</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1">
-        <v>0.965803</v>
+        <v>0.7909189999999999</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1">
-        <v>0.980858</v>
+        <v>1.2076</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1">
-        <v>0.963496</v>
+        <v>1.5274539999999999</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1">
-        <v>1.146948</v>
+        <v>0.8672340000000001</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1">
-        <v>0.75714</v>
+        <v>0.951686</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1">
-        <v>1.082134</v>
+        <v>0.646938</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1">
-        <v>1.205642</v>
+        <v>2.274522</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1">
-        <v>1.721165</v>
+        <v>0.77452</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1">
-        <v>1.118408</v>
+        <v>0.43402399999999997</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1">
-        <v>1.024868</v>
+        <v>0.854173</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1">
-        <v>0.929114</v>
+        <v>0.41365999999999997</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1">
-        <v>0.7104239999999999</v>
+        <v>0.94878</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1">
-        <v>0.892488</v>
+        <v>1.4342219999999999</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1">
-        <v>0.839862</v>
+        <v>0.706789</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1">
-        <v>1.206647</v>
+        <v>0.97272</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1">
-        <v>1.045</v>
+        <v>0.45844</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1">
-        <v>4.608473</v>
+        <v>0.857528</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1">
-        <v>0.902545</v>
+        <v>0.6912459999999999</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1">
-        <v>0.883723</v>
+        <v>1.2375820000000002</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1">
-        <v>0.914517</v>
+        <v>1.2334880000000001</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1">
-        <v>0.82117</v>
+        <v>0.798357</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1">
-        <v>0.95156</v>
+        <v>0.9749239999999999</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1">
-        <v>0.839984</v>
+        <v>0.69894</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1">
-        <v>4.5755479999999995</v>
+        <v>2.361172</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1">
-        <v>2.612897</v>
+        <v>0.87044</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1">
-        <v>0.67918</v>
+        <v>0.508623</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1">
-        <v>0.579773</v>
+        <v>0.979754</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1">
-        <v>0.8506170000000001</v>
+        <v>1.823021</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1">
-        <v>0.863329</v>
+        <v>1.1002049999999999</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1">
-        <v>0.8789349999999999</v>
+        <v>0.811169</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1">
-        <v>0.800318</v>
+        <v>0.847912</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1">
-        <v>0.97167</v>
+        <v>2.2126340000000004</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1">
-        <v>0.95227</v>
+        <v>0.48553399999999997</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1">
-        <v>0.583354</v>
+        <v>0.8081689999999999</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1">
-        <v>0.64034</v>
+        <v>0.910435</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1">
-        <v>1.530999</v>
+        <v>1.605504</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1">
-        <v>0.619343</v>
+        <v>0.978582</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1">
-        <v>0.817024</v>
+        <v>0.903916</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1">
-        <v>0.90089</v>
+        <v>0.72957</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1">
-        <v>0.9253129999999999</v>
+        <v>0.7072579999999999</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1">
-        <v>0.8267479999999999</v>
+        <v>0.7809130000000001</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1">
-        <v>0.840036</v>
+        <v>0.692034</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1">
-        <v>0.695929</v>
+        <v>1.1229479999999998</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1">
-        <v>0.861329</v>
+        <v>2.09691</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1">
-        <v>0.485711</v>
+        <v>0.7407860000000001</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1">
-        <v>0.523183</v>
+        <v>0.939161</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1">
-        <v>0.8347199999999999</v>
+        <v>0.855517</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1">
-        <v>0.522458</v>
+        <v>0.555735</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1">
-        <v>0.9726090000000001</v>
+        <v>0.8814110000000001</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1">
-        <v>0.755081</v>
+        <v>0.780627</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1">
-        <v>0.8001090000000001</v>
+        <v>0.9231480000000001</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1">
-        <v>0.87032</v>
+        <v>1.2994409999999998</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1">
-        <v>1.0872600000000001</v>
+        <v>0.900421</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1">
-        <v>0.508306</v>
+        <v>0.851942</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1">
-        <v>0.931996</v>
+        <v>0.851623</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1">
-        <v>0.841407</v>
+        <v>2.214462</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1">
-        <v>1.802413</v>
+        <v>0.676792</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1">
-        <v>0.8728549999999999</v>
+        <v>0.940986</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1">
-        <v>2.5183050000000002</v>
+        <v>1.0117340000000001</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1">
-        <v>2.332115</v>
+        <v>2.934239</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1">
-        <v>2.870352</v>
+        <v>0.618588</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1">
-        <v>0.608234</v>
+        <v>0.581766</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1">
-        <v>3.367643</v>
+        <v>0.88407</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1">
-        <v>0.6198049999999999</v>
+        <v>0.451604</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1">
-        <v>0.836824</v>
+        <v>0.6267659999999999</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1">
-        <v>0.5501189999999999</v>
+        <v>0.768229</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1">
-        <v>0.511378</v>
+        <v>2.6446199999999997</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1">
-        <v>0.9275359999999999</v>
+        <v>0.71368</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1">
-        <v>0.898702</v>
+        <v>0.5974860000000001</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1">
-        <v>1.003215</v>
+        <v>1.016694</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1">
-        <v>0.49173399999999995</v>
+        <v>0.45400799999999997</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1">
-        <v>2.685636</v>
+        <v>0.84612</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1">
-        <v>0.48605000000000004</v>
+        <v>0.7926460000000001</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1">
-        <v>0.898861</v>
+        <v>0.821959</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1">
-        <v>0.998606</v>
+        <v>2.171609</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1">
-        <v>0.909232</v>
+        <v>0.910458</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1">
-        <v>0.875058</v>
+        <v>0.8986219999999999</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1">
-        <v>0.886316</v>
+        <v>0.853085</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1">
-        <v>0.9305990000000001</v>
+        <v>1.694074</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1">
-        <v>0.7915300000000001</v>
+        <v>0.922615</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1">
-        <v>0.815958</v>
+        <v>0.845712</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1">
-        <v>1.825758</v>
+        <v>0.604224</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1">
-        <v>0.996578</v>
+        <v>2.0632900000000003</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1">
-        <v>1.115032</v>
+        <v>0.743136</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1">
-        <v>0.820014</v>
+        <v>0.9118419999999999</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1">
-        <v>0.8729439999999999</v>
+        <v>0.586933</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1">
-        <v>0.82453</v>
+        <v>2.116106</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1">
-        <v>0.799204</v>
+        <v>0.706366</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1">
-        <v>0.889467</v>
+        <v>0.767736</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1">
-        <v>0.7962079999999999</v>
+        <v>0.80475</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1">
-        <v>0.8306830000000001</v>
+        <v>0.754914</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1">
-        <v>0.749867</v>
+        <v>1.21489</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1">
-        <v>0.7100420000000001</v>
+        <v>0.895234</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1">
-        <v>0.8405119999999999</v>
+        <v>0.633588</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1">
-        <v>0.804739</v>
+        <v>0.857287</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1">
-        <v>0.827827</v>
+        <v>1.5249009999999998</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1">
-        <v>0.926838</v>
+        <v>0.864588</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1">
-        <v>0.923489</v>
+        <v>0.837008</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1">
-        <v>0.94938</v>
+        <v>0.876852</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1">
-        <v>0.7791669999999999</v>
+        <v>2.03193</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1">
-        <v>1.5176589999999999</v>
+        <v>0.714214</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1">
-        <v>0.8712799999999999</v>
+        <v>0.758977</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1">
-        <v>1.271095</v>
+        <v>0.76779</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1">
-        <v>1.333167</v>
+        <v>1.158389</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1">
-        <v>0.612504</v>
+        <v>1.000155</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1">
-        <v>0.92684</v>
+        <v>0.7494780000000001</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1">
-        <v>0.790843</v>
+        <v>0.808311</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1">
-        <v>0.787326</v>
+        <v>2.089002</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1">
-        <v>0.7756660000000001</v>
+        <v>0.79711</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1">
-        <v>0.830312</v>
+        <v>0.6424179999999999</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1">
-        <v>1.086788</v>
+        <v>0.93696</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1">
-        <v>0.640823</v>
+        <v>2.314093</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1">
-        <v>2.490707</v>
+        <v>0.640723</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1">
-        <v>0.8245439999999999</v>
+        <v>0.783574</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1">
-        <v>0.917467</v>
+        <v>0.896173</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1">
-        <v>0.86502</v>
+        <v>0.834361</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1">
-        <v>0.8410479999999999</v>
+        <v>0.436353</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1">
-        <v>1.35759</v>
+        <v>0.707142</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1">
-        <v>0.522203</v>
+        <v>1.20041</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1">
-        <v>1.008458</v>
+        <v>1.018939</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1">
-        <v>2.221232</v>
+        <v>0.392059</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1">
-        <v>0.6972280000000001</v>
+        <v>0.701085</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1">
-        <v>0.822018</v>
+        <v>1.18968</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1">
-        <v>0.7927109999999999</v>
+        <v>0.7477</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1">
-        <v>1.179854</v>
+        <v>1.0820969999999999</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1">
-        <v>0.98073</v>
+        <v>0.777868</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1">
-        <v>0.478977</v>
+        <v>0.7313470000000001</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1">
-        <v>1.4425</v>
+        <v>1.5104520000000001</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1">
-        <v>1.2428700000000001</v>
+        <v>0.547082</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1">
-        <v>0.5405679999999999</v>
+        <v>1.9256900000000001</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1">
-        <v>12.465619</v>
+        <v>0.9946860000000001</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1">
-        <v>0.568462</v>
+        <v>0.656463</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1">
-        <v>2.671405</v>
+        <v>0.554137</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1">
-        <v>0.887533</v>
+        <v>2.020703</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1">
-        <v>0.890071</v>
+        <v>0.778208</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1">
-        <v>1.1157059999999999</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1">
-        <v>0.6422599999999999</v>
+        <v>0.671538</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1">
-        <v>0.6878150000000001</v>
+        <v>0.526567</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1">
-        <v>0.9941450000000001</v>
+        <v>0.8109109999999999</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1">
-        <v>2.125979</v>
+        <v>0.843232</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1">
-        <v>1.895853</v>
+        <v>0.586279</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1">
-        <v>0.524724</v>
+        <v>0.9480839999999999</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1">
-        <v>20.939759</v>
+        <v>0.800982</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1">
-        <v>1.4158879999999998</v>
+        <v>0.8393050000000001</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1">
-        <v>1.6190309999999999</v>
+        <v>0.68312</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1">
-        <v>2.1137360000000003</v>
+        <v>1.183377</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1">
-        <v>1.109136</v>
+        <v>1.083952</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1">
-        <v>0.9834419999999999</v>
+        <v>0.67834</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1">
-        <v>0.49281300000000006</v>
+        <v>1.140362</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1">
-        <v>1.245019</v>
+        <v>0.71067</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1">
-        <v>0.680185</v>
+        <v>1.098998</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1">
-        <v>0.825194</v>
+        <v>0.774672</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1">
-        <v>0.8010069999999999</v>
+        <v>1.0418420000000002</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1">
-        <v>0.968925</v>
+        <v>0.8638790000000001</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1">
-        <v>0.884562</v>
+        <v>0.561575</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1">
-        <v>0.9547950000000001</v>
+        <v>0.870954</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1">
-        <v>0.432444</v>
+        <v>0.406819</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1">
-        <v>0.74014</v>
+        <v>0.771778</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1">
-        <v>2.878434</v>
+        <v>0.677504</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1">
-        <v>0.9997</v>
+        <v>0.865393</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1">
-        <v>7.144013</v>
+        <v>1.9582330000000001</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1">
-        <v>1.0147599999999999</v>
+        <v>0.858313</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1">
-        <v>0.94852</v>
+        <v>0.839919</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1">
-        <v>0.561706</v>
+        <v>0.8318909999999999</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1">
-        <v>0.6892050000000001</v>
+        <v>1.5566620000000002</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1">
-        <v>1.2570940000000002</v>
+        <v>0.835556</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1">
-        <v>1.786175</v>
+        <v>0.7369199999999999</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1">
-        <v>0.864237</v>
+        <v>0.774818</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1">
-        <v>1.248489</v>
+        <v>1.731197</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1">
-        <v>1.1517840000000001</v>
+        <v>0.8591420000000001</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1">
-        <v>1.0165359999999999</v>
+        <v>0.635225</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1">
-        <v>1.3771740000000001</v>
+        <v>0.8082090000000001</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1">
-        <v>1.347484</v>
+        <v>1.8691840000000002</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1">
-        <v>0.7516660000000001</v>
+        <v>0.844036</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1">
-        <v>0.691392</v>
+        <v>0.833179</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1">
-        <v>0.8035880000000001</v>
+        <v>0.5512250000000001</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1">
-        <v>0.639489</v>
+        <v>2.0668879999999996</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1">
-        <v>2.080915</v>
+        <v>0.45137900000000003</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1">
-        <v>0.707105</v>
+        <v>0.5492589999999999</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1">
-        <v>5.749535</v>
+        <v>1.20529</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1">
-        <v>1.145403</v>
+        <v>0.67968</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1">
-        <v>0.87097</v>
+        <v>0.694035</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1">
-        <v>0.778377</v>
+        <v>0.724107</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1">
-        <v>0.982532</v>
+        <v>1.14203</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1">
-        <v>1.320797</v>
+        <v>1.0268460000000001</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1">
-        <v>0.43871699999999997</v>
+        <v>0.938366</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1">
-        <v>0.94779</v>
+        <v>0.822516</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1">
-        <v>0.535869</v>
+        <v>0.425057</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1">
-        <v>0.585256</v>
+        <v>2.834577</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1">
-        <v>2.16663</v>
+        <v>0.80231</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1">
-        <v>0.833915</v>
+        <v>0.904421</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1">
-        <v>0.877609</v>
+        <v>0.850552</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1">
-        <v>1.32818</v>
+        <v>0.49132899999999996</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1">
-        <v>0.866155</v>
+        <v>1.0556809999999999</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1">
-        <v>0.788635</v>
+        <v>0.49225699999999994</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1">
-        <v>0.994207</v>
+        <v>0.766705</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1">
-        <v>0.843125</v>
+        <v>2.1253729999999997</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1">
-        <v>0.789385</v>
+        <v>0.707218</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1">
-        <v>1.006213</v>
+        <v>0.7532329999999999</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1">
-        <v>2.051932</v>
+        <v>0.583312</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1">
-        <v>0.885101</v>
+        <v>2.2039619999999998</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1">
-        <v>1.1074220000000001</v>
+        <v>0.711822</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1">
-        <v>0.637286</v>
+        <v>0.641123</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1">
-        <v>0.609749</v>
+        <v>0.942786</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1">
-        <v>2.036212</v>
+        <v>0.84558</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1">
-        <v>0.89364</v>
+        <v>0.5688489999999999</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1">
-        <v>5.684429000000001</v>
+        <v>0.77192</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1">
-        <v>0.669929</v>
+        <v>1.068487</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1">
-        <v>1.3458809999999999</v>
+        <v>0.6939580000000001</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1">
-        <v>4.802182</v>
+        <v>0.814375</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1">
-        <v>16.016840000000002</v>
+        <v>0.530664</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1">
-        <v>0.5282699999999999</v>
+        <v>2.046035</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1">
-        <v>1.53878</v>
+        <v>0.81434</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1">
-        <v>0.548804</v>
+        <v>0.745474</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1">
-        <v>1.811712</v>
+        <v>0.93596</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1">
-        <v>1.5704339999999999</v>
+        <v>0.839057</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1">
-        <v>0.51368</v>
+        <v>0.830157</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1">
-        <v>0.805918</v>
+        <v>0.899244</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1">
-        <v>0.783884</v>
+        <v>0.780277</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1">
-        <v>0.6512370000000001</v>
+        <v>0.944498</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1">
-        <v>20.726049</v>
+        <v>1.0639880000000002</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1">
-        <v>0.6567879999999999</v>
+        <v>0.705422</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1">
-        <v>4.427762</v>
+        <v>0.8838280000000001</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1">
-        <v>1.056535</v>
+        <v>0.727954</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1">
-        <v>1.934514</v>
+        <v>0.48209</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1">
-        <v>1.1061910000000001</v>
+        <v>1.008837</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1">
-        <v>0.81552</v>
+        <v>0.592499</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1">
-        <v>0.798797</v>
+        <v>0.920792</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1">
-        <v>1.810562</v>
+        <v>0.755108</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1">
-        <v>0.6412720000000001</v>
+        <v>2.9909670000000004</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1">
-        <v>2.029893</v>
+        <v>0.935362</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1">
-        <v>1.026249</v>
+        <v>0.8426170000000001</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1">
-        <v>0.8108380000000001</v>
+        <v>0.82373</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1">
-        <v>0.859658</v>
+        <v>0.9715</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1">
-        <v>0.985978</v>
+        <v>0.685511</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1">
-        <v>1.647892</v>
+        <v>0.851906</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1">
-        <v>0.969462</v>
+        <v>0.478977</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1">
-        <v>6.658647</v>
+        <v>1.262191</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1">
-        <v>0.890614</v>
+        <v>0.875796</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1">
-        <v>1.513059</v>
+        <v>0.6604650000000001</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1">
-        <v>1.613743</v>
+        <v>0.917657</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1">
-        <v>1.294243</v>
+        <v>0.912076</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1">
-        <v>1.4401080000000002</v>
+        <v>0.702624</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1">
-        <v>0.670886</v>
+        <v>0.989565</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1">
-        <v>1.243906</v>
+        <v>0.68124</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1">
-        <v>0.737847</v>
+        <v>1.056706</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1">
-        <v>6.824451</v>
+        <v>0.7665630000000001</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1">
-        <v>0.478588</v>
+        <v>0.7888320000000001</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1">
-        <v>0.9189149999999999</v>
+        <v>0.767574</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1">
-        <v>0.49367099999999997</v>
+        <v>1.9894980000000002</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1">
-        <v>1.003139</v>
+        <v>0.949972</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1">
-        <v>0.7728280000000001</v>
+        <v>0.610101</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1">
-        <v>1.443733</v>
+        <v>1.0639079999999999</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1">
-        <v>0.770252</v>
+        <v>0.5549040000000001</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1">
-        <v>2.196205</v>
+        <v>1.096236</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1">
-        <v>0.620101</v>
+        <v>0.7965300000000001</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1">
-        <v>0.8144279999999999</v>
+        <v>1.284934</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1">
-        <v>3.706647</v>
+        <v>0.8551179999999999</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1">
-        <v>0.5739449999999999</v>
+        <v>0.5916359999999999</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1">
-        <v>1.2997340000000002</v>
+        <v>1.051987</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1">
-        <v>0.9201170000000001</v>
+        <v>0.604189</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1">
-        <v>1.7933789999999998</v>
+        <v>2.197175</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1">
-        <v>0.7635489999999999</v>
+        <v>0.728399</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1">
-        <v>0.7563529999999999</v>
+        <v>0.7473650000000001</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1">
-        <v>0.869808</v>
+        <v>1.060797</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1">
-        <v>0.79011</v>
+        <v>0.503596</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1">
-        <v>5.4405779999999995</v>
+        <v>0.85244</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1">
-        <v>0.668712</v>
+        <v>0.779538</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1">
-        <v>1.184629</v>
+        <v>0.8403889999999999</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1">
-        <v>3.151886</v>
+        <v>2.105975</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1">
-        <v>3.091374</v>
+        <v>0.8996460000000001</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1">
-        <v>0.685304</v>
+        <v>0.681847</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1">
-        <v>0.9461689999999999</v>
+        <v>0.8769659999999999</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1">
-        <v>3.578968</v>
+        <v>0.820876</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1">
-        <v>0.7860659999999999</v>
+        <v>0.916485</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1">
-        <v>1.145402</v>
+        <v>0.68896</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1">
-        <v>1.392741</v>
+        <v>1.073822</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1">
-        <v>0.586939</v>
+        <v>2.206528</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1">
-        <v>0.739193</v>
+        <v>0.700272</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1">
-        <v>1.593276</v>
+        <v>0.840299</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1">
-        <v>0.670839</v>
+        <v>0.7618879999999999</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1">
-        <v>0.819511</v>
+        <v>2.5269500000000003</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1">
-        <v>0.893604</v>
+        <v>0.785558</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1">
-        <v>3.76597</v>
+        <v>0.750745</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1">
-        <v>4.1680019999999995</v>
+        <v>1.262287</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1">
-        <v>2.148114</v>
+        <v>0.810897</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1">
-        <v>0.566199</v>
+        <v>0.479413</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1">
-        <v>0.616803</v>
+        <v>0.7799200000000001</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1">
-        <v>0.886651</v>
+        <v>0.482572</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1">
-        <v>0.816014</v>
+        <v>1.155115</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1">
-        <v>0.746493</v>
+        <v>0.728984</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1">
-        <v>0.5649719999999999</v>
+        <v>0.81826</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1">
-        <v>1.142909</v>
+        <v>0.851136</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1">
-        <v>0.544442</v>
+        <v>0.6140260000000001</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1">
-        <v>6.892135</v>
+        <v>2.02176</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1">
-        <v>0.5522739999999999</v>
+        <v>0.649898</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1">
-        <v>0.645892</v>
+        <v>0.740878</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1">
-        <v>1.055987</v>
+        <v>1.04098</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1">
-        <v>9.942559</v>
+        <v>0.70783</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1">
-        <v>0.79592</v>
+        <v>1.0166789999999999</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1">
-        <v>7.034808</v>
+        <v>0.8550880000000001</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1">
-        <v>20.332814000000003</v>
+        <v>0.453826</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1">
-        <v>0.596707</v>
+        <v>0.817287</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1">
-        <v>0.672246</v>
+        <v>0.763343</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1">
-        <v>0.775232</v>
+        <v>0.688997</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1">
-        <v>0.623695</v>
+        <v>0.899417</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1">
-        <v>0.635913</v>
+        <v>0.811361</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1">
-        <v>1.38381</v>
+        <v>1.392557</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1">
-        <v>2.56852</v>
+        <v>1.06296</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1">
-        <v>1.215843</v>
+        <v>0.938303</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1">
-        <v>10.645066</v>
+        <v>0.8249909999999999</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1">
-        <v>11.074038</v>
+        <v>0.784436</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1">
-        <v>2.1734720000000003</v>
+        <v>1.778937</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1">
-        <v>45.3654</v>
+        <v>0.750037</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1">
-        <v>3.307874</v>
+        <v>0.4482</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1">
-        <v>2.104031</v>
+        <v>1.2626950000000001</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1">
-        <v>4.314542</v>
+        <v>0.849019</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1">
-        <v>5.957673</v>
+        <v>0.8011649999999999</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1">
-        <v>2.69198</v>
+        <v>0.7032069999999999</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1">
-        <v>7.272829</v>
+        <v>1.1859069999999998</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1">
-        <v>3.0495</v>
+        <v>1.4349779999999999</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1">
-        <v>0.9615309999999999</v>
+        <v>0.864331</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1">
-        <v>0.999426</v>
+        <v>0.905629</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1">
-        <v>0.698726</v>
+        <v>0.717925</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1">
-        <v>2.22297</v>
+        <v>1.159772</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1">
-        <v>1.243412</v>
+        <v>0.821125</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1">
-        <v>5.827125</v>
+        <v>0.7092449999999999</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1">
-        <v>11.643018</v>
+        <v>0.827961</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1">
-        <v>0.8838</v>
+        <v>0.555769</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1">
-        <v>8.609577</v>
+        <v>0.890853</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1">
-        <v>3.261062</v>
+        <v>0.47078000000000003</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1">
-        <v>2.2489689999999998</v>
+        <v>0.904963</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1">
-        <v>9.488857</v>
+        <v>2.40455</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1">
-        <v>1.183292</v>
+        <v>0.6730119999999999</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1">
-        <v>3.1464179999999997</v>
+        <v>0.678525</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1">
-        <v>3.1837139999999997</v>
+        <v>1.029823</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1">
-        <v>1.24135</v>
+        <v>0.7087</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1">
-        <v>0.758666</v>
+        <v>0.66641</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1">
-        <v>0.956848</v>
+        <v>0.6547919999999999</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1">
-        <v>0.682922</v>
+        <v>1.179118</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1">
-        <v>0.7467469999999999</v>
+        <v>1.950346</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1">
-        <v>2.758623</v>
+        <v>0.45541899999999996</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1">
-        <v>7.354017</v>
+        <v>0.915024</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1">
-        <v>4.041892</v>
+        <v>0.8664229999999999</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1">
-        <v>1.846858</v>
+        <v>1.447769</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1">
-        <v>0.890856</v>
+        <v>0.764492</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="1">
-        <v>0.6261730000000001</v>
+        <v>0.524243</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="1">
-        <v>0.678744</v>
+        <v>1.031274</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="1">
-        <v>0.890158</v>
+        <v>1.584246</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="1">
-        <v>1.781483</v>
+        <v>0.834021</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1">
-        <v>5.03363</v>
+        <v>0.9798490000000001</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="1">
-        <v>0.833737</v>
+        <v>0.5119910000000001</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="1">
-        <v>0.909967</v>
+        <v>2.28341</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="1">
-        <v>3.1673080000000002</v>
+        <v>0.8799199999999999</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="1">
-        <v>1.938258</v>
+        <v>0.858893</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="1">
-        <v>13.607761</v>
+        <v>0.81733</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="1">
-        <v>0.7333930000000001</v>
+        <v>0.593711</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="1">
-        <v>1.82456</v>
+        <v>1.96454</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="1">
-        <v>1.440855</v>
+        <v>0.629098</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="1">
-        <v>2.104776</v>
+        <v>0.7990999999999999</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="1">
-        <v>0.898761</v>
+        <v>1.027606</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="1">
-        <v>0.625325</v>
+        <v>0.415801</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="1">
-        <v>0.65716</v>
+        <v>0.8127679999999999</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="1">
-        <v>2.531271</v>
+        <v>0.6059</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="1">
-        <v>0.764494</v>
+        <v>1.19385</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="1">
-        <v>0.7673530000000001</v>
+        <v>1.504866</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="1">
-        <v>0.805877</v>
+        <v>0.700001</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="1">
-        <v>1.201613</v>
+        <v>0.973958</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="1">
-        <v>0.859135</v>
+        <v>0.7995800000000001</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="1">
-        <v>1.1998980000000001</v>
+        <v>1.6160860000000001</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="1">
-        <v>1.312856</v>
+        <v>0.9893479999999999</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="1">
-        <v>0.5578160000000001</v>
+        <v>0.493219</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="1">
-        <v>0.90536</v>
+        <v>0.569252</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="1">
-        <v>1.142881</v>
+        <v>2.072838</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="1">
-        <v>0.623198</v>
+        <v>0.883653</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="1">
-        <v>0.955929</v>
+        <v>0.429275</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="1">
-        <v>0.88126</v>
+        <v>2.095665</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="1">
-        <v>1.711435</v>
+        <v>0.543763</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="1">
-        <v>0.665528</v>
+        <v>0.69299</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="1">
-        <v>1.14791</v>
+        <v>0.79239</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="1">
-        <v>0.5212389999999999</v>
+        <v>2.455137</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="1">
-        <v>5.006098</v>
+        <v>0.862446</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="1">
-        <v>2.7316939999999996</v>
+        <v>0.6337619999999999</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="1">
-        <v>0.585204</v>
+        <v>0.701628</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="1">
-        <v>0.5581320000000001</v>
+        <v>1.2115749999999998</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="1">
-        <v>0.63038</v>
+        <v>0.676044</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="1">
-        <v>2.45612</v>
+        <v>0.822086</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="1">
-        <v>2.214188</v>
+        <v>0.46196</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="1">
-        <v>0.513963</v>
+        <v>0.7286210000000001</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="1">
-        <v>0.8988400000000001</v>
+        <v>1.846554</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="1">
-        <v>0.725272</v>
+        <v>0.743878</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="1">
-        <v>0.588997</v>
+        <v>0.7599100000000001</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="1">
-        <v>1.2942870000000002</v>
+        <v>0.5442049999999999</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="1">
-        <v>0.419468</v>
+        <v>1.217105</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="1">
-        <v>0.887344</v>
+        <v>0.785632</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="1">
-        <v>0.544756</v>
+        <v>0.470333</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="1">
-        <v>0.450205</v>
+        <v>1.5412299999999999</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="1">
-        <v>0.9355439999999999</v>
+        <v>0.553233</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="1">
-        <v>0.603056</v>
+        <v>0.769066</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="1">
-        <v>1.662347</v>
+        <v>0.5992839999999999</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="1">
-        <v>1.148551</v>
+        <v>1.7292729999999998</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="1">
-        <v>0.8267479999999999</v>
+        <v>1.007398</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="1">
-        <v>0.46889000000000003</v>
+        <v>0.565338</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="1">
-        <v>1.1629500000000002</v>
+        <v>0.89398</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="1">
-        <v>0.664638</v>
+        <v>0.751618</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="1">
-        <v>1.5961239999999999</v>
+        <v>0.70436</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="1">
-        <v>0.459269</v>
+        <v>0.837305</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="1">
-        <v>0.711038</v>
+        <v>0.525549</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="1">
-        <v>0.438059</v>
+        <v>1.32924</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="1">
-        <v>0.795474</v>
+        <v>2.9113580000000003</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="1">
-        <v>0.731409</v>
+        <v>0.49719900000000006</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="1">
-        <v>0.845754</v>
+        <v>0.9095979999999999</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="1">
-        <v>1.199145</v>
+        <v>0.513716</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="1">
-        <v>0.953153</v>
+        <v>0.525901</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="1">
-        <v>0.82453</v>
+        <v>0.796702</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="1">
-        <v>0.802602</v>
+        <v>0.933981</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="1">
-        <v>0.5381630000000001</v>
+        <v>0.44414200000000004</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="1">
-        <v>0.551412</v>
+        <v>0.874395</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="1">
-        <v>0.54264</v>
+        <v>0.5797960000000001</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="1">
-        <v>0.946813</v>
+        <v>0.489747</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="1">
-        <v>0.643586</v>
+        <v>0.891543</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="1">
-        <v>0.565561</v>
+        <v>1.4988899999999998</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="1">
-        <v>0.660313</v>
+        <v>0.843037</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="1">
-        <v>0.75052</v>
+        <v>1.0056690000000001</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="1">
-        <v>0.8777429999999999</v>
+        <v>0.928868</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="1">
-        <v>0.667566</v>
+        <v>0.8657950000000001</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="1">
-        <v>0.577949</v>
+        <v>0.750176</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="1">
-        <v>1.011177</v>
+        <v>0.687497</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="1">
-        <v>0.516115</v>
+        <v>0.969317</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="1">
-        <v>0.464312</v>
+        <v>0.59931</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="1">
-        <v>0.669643</v>
+        <v>0.769058</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="1">
-        <v>0.8560450000000001</v>
+        <v>0.669015</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="1">
-        <v>1.0193489999999998</v>
+        <v>1.0373750000000002</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="1">
-        <v>0.8287019999999999</v>
+        <v>1.710275</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="1">
-        <v>1.423647</v>
+        <v>0.6849160000000001</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="1">
-        <v>0.872426</v>
+        <v>0.693495</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="1">
-        <v>0.82271</v>
+        <v>0.697462</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="1">
-        <v>0.723475</v>
+        <v>2.4230430000000003</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="1">
-        <v>1.0200669999999998</v>
+        <v>0.412943</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="1">
-        <v>0.87314</v>
+        <v>0.69122</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="1">
-        <v>1.025047</v>
+        <v>0.741149</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="1">
-        <v>0.762148</v>
+        <v>0.39713299999999996</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="1">
-        <v>0.8301750000000001</v>
+        <v>0.8221040000000001</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="1">
-        <v>0.523539</v>
+        <v>0.5855279999999999</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="1">
-        <v>0.794262</v>
+        <v>0.923946</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="1">
-        <v>0.9954880000000002</v>
+        <v>0.76467</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="1">
-        <v>0.7787350000000001</v>
+        <v>0.965286</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="1">
-        <v>0.8479899999999999</v>
+        <v>0.856469</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="1">
-        <v>0.9829490000000001</v>
+        <v>0.47785900000000003</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="1">
-        <v>0.934898</v>
+        <v>0.511656</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="1">
-        <v>1.27839</v>
+        <v>0.464135</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="1">
-        <v>0.8968719999999999</v>
+        <v>0.792748</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="1">
-        <v>0.790402</v>
+        <v>0.7329</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="1">
-        <v>0.855707</v>
+        <v>1.164748</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="1">
-        <v>0.923346</v>
+        <v>1.060111</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="1">
-        <v>0.796546</v>
+        <v>0.513931</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="1">
-        <v>0.8315100000000001</v>
+        <v>0.896159</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="1">
-        <v>0.756257</v>
+        <v>0.659196</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="1">
-        <v>0.7750199999999999</v>
+        <v>1.073238</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="1">
-        <v>0.59224</v>
+        <v>0.830322</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="1">
-        <v>0.890302</v>
+        <v>0.51334</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="1">
-        <v>0.7552</v>
+        <v>0.974243</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="1">
-        <v>0.9499620000000001</v>
+        <v>1.7047189999999999</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="1">
-        <v>1.095058</v>
+        <v>0.765592</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="1">
-        <v>1.096565</v>
+        <v>1.017787</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="1">
-        <v>1.047566</v>
+        <v>0.610853</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="1">
-        <v>0.781688</v>
+        <v>1.9593980000000002</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="1">
-        <v>0.816161</v>
+        <v>0.72419</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="1">
-        <v>0.868223</v>
+        <v>0.488849</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="1">
-        <v>0.981324</v>
+        <v>0.880853</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="1">
-        <v>0.9867579999999999</v>
+        <v>0.702202</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="1">
-        <v>0.889651</v>
+        <v>2.275674</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="1">
-        <v>1.006246</v>
+        <v>0.939496</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="1">
-        <v>0.9987920000000001</v>
+        <v>0.742162</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="1">
-        <v>0.822905</v>
+        <v>1.126967</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="1">
-        <v>0.7657020000000001</v>
+        <v>2.122868</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="1">
-        <v>0.814362</v>
+        <v>0.904506</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="1">
-        <v>0.82445</v>
+        <v>0.767615</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="1">
-        <v>1.358167</v>
+        <v>0.806367</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="1">
-        <v>0.7187899999999999</v>
+        <v>1.592079</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="1">
-        <v>0.956982</v>
+        <v>0.690565</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="1">
-        <v>0.9519249999999999</v>
+        <v>0.428347</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="1">
-        <v>1.312122</v>
+        <v>0.767902</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="1">
-        <v>0.9783979999999999</v>
+        <v>0.7963290000000001</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="1">
-        <v>1.0839459999999999</v>
+        <v>0.707028</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="1">
-        <v>0.969927</v>
+        <v>0.7563230000000001</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="1">
-        <v>0.968162</v>
+        <v>0.836703</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="1">
-        <v>0.8404210000000001</v>
+        <v>0.54654</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="1">
-        <v>1.093834</v>
+        <v>0.73968</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="1">
-        <v>0.8985599999999999</v>
+        <v>0.750295</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="1">
-        <v>0.984553</v>
+        <v>1.088775</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="1">
-        <v>0.977277</v>
+        <v>0.5246749999999999</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="1">
-        <v>1.403488</v>
+        <v>2.632031</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="1">
-        <v>0.878164</v>
+        <v>0.8231580000000001</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="1">
-        <v>0.636456</v>
+        <v>0.546679</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="1">
-        <v>0.973961</v>
+        <v>0.8104549999999999</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="1">
-        <v>1.009156</v>
+        <v>0.810682</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="1">
-        <v>1.1418139999999999</v>
+        <v>0.575015</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="1">
-        <v>0.9919499999999999</v>
+        <v>0.785592</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="1">
-        <v>1.05951</v>
+        <v>1.270782</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="1">
-        <v>0.4204</v>
+        <v>1.0825170000000002</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="1">
-        <v>0.842766</v>
+        <v>0.772448</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="1">
-        <v>0.7715460000000001</v>
+        <v>0.902253</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="1">
-        <v>0.813944</v>
+        <v>0.529521</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="1">
-        <v>1.420669</v>
+        <v>1.950294</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="1">
-        <v>0.991562</v>
+        <v>0.833106</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="1">
-        <v>0.964931</v>
+        <v>0.7147479999999999</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="1">
-        <v>0.864116</v>
+        <v>0.938078</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="1">
-        <v>1.699085</v>
+        <v>1.04412</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="1">
-        <v>1.826344</v>
+        <v>0.931753</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="1">
-        <v>1.673481</v>
+        <v>0.9250659999999999</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="1">
-        <v>0.939443</v>
+        <v>0.953412</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="1">
-        <v>1.207412</v>
+        <v>1.525301</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="1">
-        <v>0.846499</v>
+        <v>0.64159</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="1">
-        <v>1.200808</v>
+        <v>0.908235</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="1">
-        <v>0.893804</v>
+        <v>0.871328</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="1">
-        <v>0.7932809999999999</v>
+        <v>1.55256</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="1">
-        <v>0.764748</v>
+        <v>0.894791</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="1">
-        <v>0.82167</v>
+        <v>0.780153</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="1">
-        <v>0.784145</v>
+        <v>0.953633</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="1">
-        <v>0.780605</v>
+        <v>1.130263</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="1">
-        <v>1.156264</v>
+        <v>0.8523200000000001</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="1">
-        <v>0.8056530000000001</v>
+        <v>0.856776</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="1">
-        <v>1.046917</v>
+        <v>0.7721899999999999</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="1">
-        <v>0.419721</v>
+        <v>1.826947</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="1">
-        <v>0.652682</v>
+        <v>0.768927</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="1">
-        <v>0.872241</v>
+        <v>0.902273</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="1">
-        <v>0.955089</v>
+        <v>0.859987</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="1">
-        <v>1.209989</v>
+        <v>1.195964</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="1">
-        <v>0.829311</v>
+        <v>1.276394</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="1">
-        <v>0.848582</v>
+        <v>0.847969</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="1">
-        <v>0.8862880000000001</v>
+        <v>0.7778769999999999</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="1">
-        <v>0.89559</v>
+        <v>0.9003</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="1">
-        <v>0.467858</v>
+        <v>2.1831709999999998</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="1">
-        <v>1.0151260000000002</v>
+        <v>0.703688</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="1">
-        <v>0.827766</v>
+        <v>1.00688</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="1">
-        <v>0.945636</v>
+        <v>0.646914</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="1">
-        <v>1.134569</v>
+        <v>1.637008</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="1">
-        <v>0.919</v>
+        <v>0.8369070000000001</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="1">
-        <v>0.5054839999999999</v>
+        <v>0.869846</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="1">
-        <v>0.5521</v>
+        <v>0.5914750000000001</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="1">
-        <v>0.808002</v>
+        <v>2.0609830000000002</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="1">
-        <v>0.5135749999999999</v>
+        <v>0.784946</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="1">
-        <v>1.012488</v>
+        <v>0.762207</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="1">
-        <v>0.8373010000000001</v>
+        <v>0.8313809999999999</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="1">
-        <v>0.813031</v>
+        <v>1.063774</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="1">
-        <v>0.744638</v>
+        <v>0.747537</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="1">
-        <v>1.175659</v>
+        <v>0.453479</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="1">
-        <v>0.7506120000000001</v>
+        <v>0.837514</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="1">
-        <v>0.8117000000000001</v>
+        <v>1.089634</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="1">
-        <v>0.818167</v>
+        <v>0.715472</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="1">
-        <v>0.945126</v>
+        <v>0.845286</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="1">
-        <v>0.755985</v>
+        <v>1.261761</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="1">
-        <v>0.8356089999999999</v>
+        <v>0.870769</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="1">
-        <v>0.797469</v>
+        <v>0.911938</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="1">
-        <v>1.148331</v>
+        <v>0.889693</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="1">
-        <v>0.86976</v>
+        <v>0.875471</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="1">
-        <v>0.8642489999999999</v>
+        <v>0.5235230000000001</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="1">
-        <v>1.153645</v>
+        <v>0.906652</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="1">
-        <v>0.820107</v>
+        <v>0.8308</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="1">
-        <v>0.780087</v>
+        <v>0.901461</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="1">
-        <v>1.032605</v>
+        <v>0.691518</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="1">
-        <v>1.0292700000000001</v>
+        <v>0.6513209999999999</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="1">
-        <v>0.85429</v>
+        <v>0.41362099999999996</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="1">
-        <v>0.857225</v>
+        <v>1.082278</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="1">
-        <v>0.592581</v>
+        <v>1.763919</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="1">
-        <v>0.536517</v>
+        <v>0.66452</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="1">
-        <v>0.462994</v>
+        <v>0.6261049999999999</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="1">
-        <v>0.797428</v>
+        <v>0.49398200000000003</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="1">
-        <v>0.96698</v>
+        <v>0.670702</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="1">
-        <v>0.8833460000000001</v>
+        <v>1.0220680000000002</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="1">
-        <v>0.880604</v>
+        <v>0.685978</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="1">
-        <v>0.7775259999999999</v>
+        <v>0.5582280000000001</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="1">
-        <v>1.028352</v>
+        <v>0.709765</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="1">
-        <v>0.8125129999999999</v>
+        <v>0.47559799999999997</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="1">
-        <v>0.8124290000000001</v>
+        <v>0.776851</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="1">
-        <v>1.377665</v>
+        <v>0.689438</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="1">
-        <v>1.084227</v>
+        <v>1.0040719999999999</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="1">
-        <v>0.7953020000000001</v>
+        <v>1.143081</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="1">
-        <v>0.8928999999999999</v>
+        <v>0.945462</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="1">
-        <v>1.155346</v>
+        <v>0.785427</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="1">
-        <v>0.8802610000000001</v>
+        <v>0.701912</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="1">
-        <v>0.7888</v>
+        <v>1.019685</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="1">
-        <v>0.818291</v>
+        <v>0.651437</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="1">
-        <v>0.973392</v>
+        <v>0.6872440000000001</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="1">
-        <v>0.8215880000000001</v>
+        <v>0.419178</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="1">
-        <v>0.799656</v>
+        <v>2.273074</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="1">
-        <v>0.863242</v>
+        <v>0.782803</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="1">
-        <v>1.083579</v>
+        <v>0.6892429999999999</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="1">
-        <v>0.405667</v>
+        <v>0.7774709999999999</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="1">
-        <v>0.789497</v>
+        <v>2.006953</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="1">
-        <v>0.902647</v>
+        <v>0.724312</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="1">
-        <v>1.034755</v>
+        <v>0.643097</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="1">
-        <v>0.818983</v>
+        <v>1.030322</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="1">
-        <v>0.925665</v>
+        <v>1.1135279999999999</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="1">
-        <v>1.209393</v>
+        <v>0.726368</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="1">
-        <v>0.887717</v>
+        <v>0.713673</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="1">
-        <v>0.7826299999999999</v>
+        <v>0.684354</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="1">
-        <v>1.0859839999999998</v>
+        <v>1.355137</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="1">
-        <v>0.908524</v>
+        <v>0.434328</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="1">
-        <v>0.79331</v>
+        <v>0.939968</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="1">
-        <v>0.997352</v>
+        <v>0.55729</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="1">
-        <v>0.650375</v>
+        <v>2.715125</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="1">
-        <v>1.015173</v>
+        <v>0.7424569999999999</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="1">
-        <v>0.8313790000000001</v>
+        <v>0.7886679999999999</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="1">
-        <v>0.920612</v>
+        <v>1.1077750000000002</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="1">
-        <v>0.7586729999999999</v>
+        <v>0.678917</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="1">
-        <v>0.8988400000000001</v>
+        <v>1.7257550000000001</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="1">
-        <v>1.529671</v>
+        <v>0.805866</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="1">
-        <v>0.7171690000000001</v>
+        <v>0.475744</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="1">
-        <v>0.880182</v>
+        <v>0.842467</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="1">
-        <v>1.029992</v>
+        <v>2.187553</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="1">
-        <v>0.881812</v>
+        <v>0.83964</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="1">
-        <v>0.6976019999999999</v>
+        <v>0.9409919999999999</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="1">
-        <v>0.608541</v>
+        <v>0.789351</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="1">
-        <v>0.896498</v>
+        <v>2.135083</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="1">
-        <v>1.151434</v>
+        <v>0.708908</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="1">
-        <v>0.864251</v>
+        <v>0.675509</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="1">
-        <v>0.8438490000000001</v>
+        <v>0.972215</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="1">
-        <v>1.075159</v>
+        <v>0.7364719999999999</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="1">
-        <v>0.89897</v>
+        <v>0.77732</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="1">
-        <v>0.825666</v>
+        <v>0.722205</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="1">
-        <v>0.928878</v>
+        <v>1.045055</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="1">
-        <v>0.880439</v>
+        <v>1.17727</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="1">
-        <v>0.8807729999999999</v>
+        <v>0.860413</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="1">
-        <v>0.9586990000000001</v>
+        <v>0.705827</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="1">
-        <v>0.825006</v>
+        <v>1.847238</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="1">
-        <v>1.353026</v>
+        <v>0.7793500000000001</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="1">
-        <v>0.992183</v>
+        <v>0.8175100000000001</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="1">
-        <v>0.815388</v>
+        <v>0.8945500000000001</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="1">
-        <v>0.9158970000000001</v>
+        <v>0.8256669999999999</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="1">
-        <v>0.7429</v>
+        <v>0.502955</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="1">
-        <v>1.021708</v>
+        <v>0.7846110000000001</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="1">
-        <v>0.77046</v>
+        <v>0.525752</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="1">
-        <v>1.043317</v>
+        <v>0.778336</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="1">
-        <v>0.805763</v>
+        <v>1.776438</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="1">
-        <v>0.810716</v>
+        <v>0.850105</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="1">
-        <v>1.084998</v>
+        <v>0.691084</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="1">
-        <v>0.955214</v>
+        <v>0.6995169999999999</v>
       </c>
     </row>
   </sheetData>
